--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65527.55891966044</v>
+        <v>12863787.89611281</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65527.55891966044</v>
+        <v>12863787.89611281</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147305.1620040996</v>
+        <v>16792716.70164082</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147305.1620040996</v>
+        <v>16792716.70164082</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1607728761.979313</v>
+        <v>45916667.32071215</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17529.52052145945</v>
+        <v>1074891.610315959</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33741.18883382868</v>
+        <v>1963065.859248969</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49890.92867942144</v>
+        <v>2851240.108181977</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65194.36867179106</v>
+        <v>3739060.312782394</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80497.80866416066</v>
+        <v>4626880.517382815</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95801.2486565303</v>
+        <v>5514700.721983234</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>110616.930956303</v>
+        <v>6693780.878450811</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>125176.5065894091</v>
+        <v>7821895.808251719</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140812.4838308438</v>
+        <v>8588634.303658016</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>156115.718926583</v>
+        <v>9475547.485110831</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>171418.9540223221</v>
+        <v>10362460.66656364</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>186722.1891180612</v>
+        <v>11249373.84801646</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>202025.4242138004</v>
+        <v>12136287.02946927</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>220251.5366920644</v>
+        <v>12629169.91997503</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238905.4828068489</v>
+        <v>12876520.38140829</v>
       </c>
     </row>
   </sheetData>
